--- a/tmee/data_dictionary/indicator_dictionary_TM_v1.xlsx
+++ b/tmee/data_dictionary/indicator_dictionary_TM_v1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23211"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beto\OneDrive\UNICEF\TransMonEE\data-etl\sqlite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beto\UNICEF\Market Data Portal - Data Ingest - data_dictionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1952" documentId="11_D13B0069756BFA095EFDC15A1771A8F22C73F5DA" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{457C9C38-8190-4B50-8F6F-6C1CECA817BA}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3840" activeTab="2"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Snapshot" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <sheet name="Indicator (2)" sheetId="11" r:id="rId10"/>
     <sheet name="Source (2)" sheetId="10" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -39,27 +40,18 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={F4E6A653-9406-433C-9F38-51F35D609ACF}</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{F4E6A653-9406-433C-9F38-51F35D609ACF}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">[Threaded comment]
+        <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     I would have this column calcaulted from the previous two ones
 </t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -67,45 +59,27 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={22646E96-D887-41C5-B2FF-9A4A0790DD63}</author>
     <author>tc={31CCF126-9484-4913-A847-18A81E8BBB9F}</author>
   </authors>
   <commentList>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{22646E96-D887-41C5-B2FF-9A4A0790DD63}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">[Threaded comment]
+        <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Rather call it description? </t>
-        </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="1" shapeId="0">
+    <comment ref="L1" authorId="1" shapeId="0" xr:uid="{31CCF126-9484-4913-A847-18A81E8BBB9F}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">[Threaded comment]
+        <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     I would have this column calcaulted from the previous two ones
 </t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -113,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="671">
   <si>
     <t>snapshot_id</t>
   </si>
@@ -157,411 +131,420 @@
     <t>I-1</t>
   </si>
   <si>
-    <t>[V-1, V-2, V-3]</t>
+    <t>V-1</t>
+  </si>
+  <si>
+    <t>S-1</t>
+  </si>
+  <si>
+    <t>T-1</t>
+  </si>
+  <si>
+    <t>SN-2</t>
+  </si>
+  <si>
+    <t>V-2</t>
+  </si>
+  <si>
+    <t>SN-3</t>
+  </si>
+  <si>
+    <t>V-3</t>
+  </si>
+  <si>
+    <t>SN-4</t>
+  </si>
+  <si>
+    <t>I-2</t>
+  </si>
+  <si>
+    <t>V-4</t>
+  </si>
+  <si>
+    <t>S-2</t>
+  </si>
+  <si>
+    <t>T-2</t>
+  </si>
+  <si>
+    <t>SN-5</t>
+  </si>
+  <si>
+    <t>V-6</t>
+  </si>
+  <si>
+    <t>SN-6</t>
+  </si>
+  <si>
+    <t>I-3</t>
+  </si>
+  <si>
+    <t>S-3</t>
+  </si>
+  <si>
+    <t>SN-7</t>
+  </si>
+  <si>
+    <t>I-4</t>
+  </si>
+  <si>
+    <t>T-3</t>
+  </si>
+  <si>
+    <t>SN-8</t>
+  </si>
+  <si>
+    <t>I-5</t>
+  </si>
+  <si>
+    <t>SN-9</t>
+  </si>
+  <si>
+    <t>I-6</t>
+  </si>
+  <si>
+    <t>SN-10</t>
+  </si>
+  <si>
+    <t>I-7</t>
+  </si>
+  <si>
+    <t>SN-11</t>
+  </si>
+  <si>
+    <t>I-8</t>
+  </si>
+  <si>
+    <t>SN-12</t>
+  </si>
+  <si>
+    <t>I-9</t>
+  </si>
+  <si>
+    <t>V-7</t>
+  </si>
+  <si>
+    <t>SN-13</t>
+  </si>
+  <si>
+    <t>I-10</t>
+  </si>
+  <si>
+    <t>SN-14</t>
+  </si>
+  <si>
+    <t>I-11</t>
+  </si>
+  <si>
+    <t>SN-15</t>
+  </si>
+  <si>
+    <t>I-12</t>
+  </si>
+  <si>
+    <t>SN-16</t>
+  </si>
+  <si>
+    <t>I-13</t>
+  </si>
+  <si>
+    <t>S-5</t>
+  </si>
+  <si>
+    <t>SN-17</t>
+  </si>
+  <si>
+    <t>I-14</t>
+  </si>
+  <si>
+    <t>S-4</t>
+  </si>
+  <si>
+    <t>SN-18</t>
+  </si>
+  <si>
+    <t>SN-19</t>
+  </si>
+  <si>
+    <t>SN-20</t>
+  </si>
+  <si>
+    <t>SN-21</t>
+  </si>
+  <si>
+    <t>SN-22</t>
+  </si>
+  <si>
+    <t>SN-23</t>
+  </si>
+  <si>
+    <t>SN-24</t>
+  </si>
+  <si>
+    <t>SN-25</t>
+  </si>
+  <si>
+    <t>SN-26</t>
+  </si>
+  <si>
+    <t>SN-27</t>
+  </si>
+  <si>
+    <t>SN-28</t>
+  </si>
+  <si>
+    <t>SN-29</t>
+  </si>
+  <si>
+    <t>SN-30</t>
+  </si>
+  <si>
+    <t>SN-31</t>
+  </si>
+  <si>
+    <t>SN-32</t>
+  </si>
+  <si>
+    <t>SN-33</t>
+  </si>
+  <si>
+    <t>SN-34</t>
+  </si>
+  <si>
+    <t>SN-35</t>
+  </si>
+  <si>
+    <t>SN-36</t>
+  </si>
+  <si>
+    <t>SN-37</t>
+  </si>
+  <si>
+    <t>SN-38</t>
+  </si>
+  <si>
+    <t>SN-39</t>
+  </si>
+  <si>
+    <t>SN-40</t>
+  </si>
+  <si>
+    <t>SN-41</t>
+  </si>
+  <si>
+    <t>SN-42</t>
+  </si>
+  <si>
+    <t>SN-43</t>
+  </si>
+  <si>
+    <t>SN-44</t>
+  </si>
+  <si>
+    <t>SN-45</t>
+  </si>
+  <si>
+    <t>SN-46</t>
+  </si>
+  <si>
+    <t>SN-47</t>
+  </si>
+  <si>
+    <t>SN-48</t>
+  </si>
+  <si>
+    <t>SN-49</t>
+  </si>
+  <si>
+    <t>SN-50</t>
+  </si>
+  <si>
+    <t>SN-51</t>
+  </si>
+  <si>
+    <t>SN-52</t>
+  </si>
+  <si>
+    <t>SN-53</t>
+  </si>
+  <si>
+    <t>SN-54</t>
+  </si>
+  <si>
+    <t>SN-55</t>
+  </si>
+  <si>
+    <t>SN-56</t>
+  </si>
+  <si>
+    <t>SN-57</t>
+  </si>
+  <si>
+    <t>SN-58</t>
+  </si>
+  <si>
+    <t>SN-59</t>
+  </si>
+  <si>
+    <t>SN-60</t>
+  </si>
+  <si>
+    <t>SN-61</t>
+  </si>
+  <si>
+    <t>SN-62</t>
+  </si>
+  <si>
+    <t>SN-63</t>
+  </si>
+  <si>
+    <t>SN-64</t>
+  </si>
+  <si>
+    <t>SN-65</t>
+  </si>
+  <si>
+    <t>SN-66</t>
+  </si>
+  <si>
+    <t>SN-67</t>
+  </si>
+  <si>
+    <t>SN-68</t>
+  </si>
+  <si>
+    <t>SN-69</t>
+  </si>
+  <si>
+    <t>SN-70</t>
+  </si>
+  <si>
+    <t>SN-71</t>
+  </si>
+  <si>
+    <t>SN-72</t>
+  </si>
+  <si>
+    <t>SN-73</t>
+  </si>
+  <si>
+    <t>SN-74</t>
+  </si>
+  <si>
+    <t>SN-75</t>
+  </si>
+  <si>
+    <t>SN-76</t>
+  </si>
+  <si>
+    <t>SN-77</t>
+  </si>
+  <si>
+    <t>SN-78</t>
+  </si>
+  <si>
+    <t>SN-79</t>
+  </si>
+  <si>
+    <t>SN-80</t>
+  </si>
+  <si>
+    <t>SN-81</t>
+  </si>
+  <si>
+    <t>SN-82</t>
+  </si>
+  <si>
+    <t>SN-83</t>
+  </si>
+  <si>
+    <t>SN-84</t>
+  </si>
+  <si>
+    <t>SN-85</t>
+  </si>
+  <si>
+    <t>SN-86</t>
+  </si>
+  <si>
+    <t>SN-87</t>
+  </si>
+  <si>
+    <t>SN-88</t>
+  </si>
+  <si>
+    <t>SN-89</t>
+  </si>
+  <si>
+    <t>SN-90</t>
+  </si>
+  <si>
+    <t>SN-91</t>
+  </si>
+  <si>
+    <t>SN-92</t>
+  </si>
+  <si>
+    <t>SN-93</t>
+  </si>
+  <si>
+    <t>SN-94</t>
+  </si>
+  <si>
+    <t>SN-95</t>
+  </si>
+  <si>
+    <t>SN-96</t>
+  </si>
+  <si>
+    <t>SN-97</t>
+  </si>
+  <si>
+    <t>SN-98</t>
+  </si>
+  <si>
+    <t>SN-99</t>
+  </si>
+  <si>
+    <t>value_id</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Dissagregation</t>
+  </si>
+  <si>
+    <t>Labels</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Numerical</t>
   </si>
   <si>
     <t>Persons</t>
   </si>
   <si>
-    <t>S-1</t>
-  </si>
-  <si>
-    <t>T-1</t>
-  </si>
-  <si>
-    <t>SN-2</t>
-  </si>
-  <si>
-    <t>I-2</t>
-  </si>
-  <si>
-    <t>[V-1, V-3]</t>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Age groups</t>
   </si>
   <si>
     <t>Percentage</t>
   </si>
   <si>
-    <t>S-2</t>
-  </si>
-  <si>
-    <t>T-2</t>
-  </si>
-  <si>
-    <t>SN-3</t>
-  </si>
-  <si>
-    <t>I-3</t>
-  </si>
-  <si>
-    <t>V-1</t>
-  </si>
-  <si>
-    <t>S-3</t>
-  </si>
-  <si>
-    <t>SN-4</t>
-  </si>
-  <si>
-    <t>I-4</t>
-  </si>
-  <si>
-    <t>V-4</t>
-  </si>
-  <si>
-    <t>T-3</t>
-  </si>
-  <si>
-    <t>SN-5</t>
-  </si>
-  <si>
-    <t>I-5</t>
-  </si>
-  <si>
-    <t>SN-6</t>
-  </si>
-  <si>
-    <t>I-6</t>
-  </si>
-  <si>
-    <t>SN-7</t>
-  </si>
-  <si>
-    <t>I-7</t>
-  </si>
-  <si>
-    <t>SN-8</t>
-  </si>
-  <si>
-    <t>I-8</t>
-  </si>
-  <si>
-    <t>SN-9</t>
-  </si>
-  <si>
-    <t>I-9</t>
-  </si>
-  <si>
     <t>V-5</t>
   </si>
   <si>
     <t>Rate</t>
   </si>
   <si>
-    <t>SN-10</t>
-  </si>
-  <si>
-    <t>I-10</t>
-  </si>
-  <si>
-    <t>SN-11</t>
-  </si>
-  <si>
-    <t>I-11</t>
-  </si>
-  <si>
-    <t>SN-12</t>
-  </si>
-  <si>
-    <t>SN-13</t>
-  </si>
-  <si>
-    <t>SN-14</t>
-  </si>
-  <si>
-    <t>SN-15</t>
-  </si>
-  <si>
-    <t>SN-16</t>
-  </si>
-  <si>
-    <t>SN-17</t>
-  </si>
-  <si>
-    <t>SN-18</t>
-  </si>
-  <si>
-    <t>SN-19</t>
-  </si>
-  <si>
-    <t>SN-20</t>
-  </si>
-  <si>
-    <t>SN-21</t>
-  </si>
-  <si>
-    <t>SN-22</t>
-  </si>
-  <si>
-    <t>SN-23</t>
-  </si>
-  <si>
-    <t>SN-24</t>
-  </si>
-  <si>
-    <t>SN-25</t>
-  </si>
-  <si>
-    <t>SN-26</t>
-  </si>
-  <si>
-    <t>SN-27</t>
-  </si>
-  <si>
-    <t>SN-28</t>
-  </si>
-  <si>
-    <t>SN-29</t>
-  </si>
-  <si>
-    <t>SN-30</t>
-  </si>
-  <si>
-    <t>SN-31</t>
-  </si>
-  <si>
-    <t>SN-32</t>
-  </si>
-  <si>
-    <t>SN-33</t>
-  </si>
-  <si>
-    <t>SN-34</t>
-  </si>
-  <si>
-    <t>SN-35</t>
-  </si>
-  <si>
-    <t>SN-36</t>
-  </si>
-  <si>
-    <t>SN-37</t>
-  </si>
-  <si>
-    <t>SN-38</t>
-  </si>
-  <si>
-    <t>SN-39</t>
-  </si>
-  <si>
-    <t>SN-40</t>
-  </si>
-  <si>
-    <t>SN-41</t>
-  </si>
-  <si>
-    <t>SN-42</t>
-  </si>
-  <si>
-    <t>SN-43</t>
-  </si>
-  <si>
-    <t>SN-44</t>
-  </si>
-  <si>
-    <t>SN-45</t>
-  </si>
-  <si>
-    <t>SN-46</t>
-  </si>
-  <si>
-    <t>SN-47</t>
-  </si>
-  <si>
-    <t>SN-48</t>
-  </si>
-  <si>
-    <t>SN-49</t>
-  </si>
-  <si>
-    <t>SN-50</t>
-  </si>
-  <si>
-    <t>SN-51</t>
-  </si>
-  <si>
-    <t>SN-52</t>
-  </si>
-  <si>
-    <t>SN-53</t>
-  </si>
-  <si>
-    <t>SN-54</t>
-  </si>
-  <si>
-    <t>SN-55</t>
-  </si>
-  <si>
-    <t>SN-56</t>
-  </si>
-  <si>
-    <t>SN-57</t>
-  </si>
-  <si>
-    <t>SN-58</t>
-  </si>
-  <si>
-    <t>SN-59</t>
-  </si>
-  <si>
-    <t>SN-60</t>
-  </si>
-  <si>
-    <t>SN-61</t>
-  </si>
-  <si>
-    <t>SN-62</t>
-  </si>
-  <si>
-    <t>SN-63</t>
-  </si>
-  <si>
-    <t>SN-64</t>
-  </si>
-  <si>
-    <t>SN-65</t>
-  </si>
-  <si>
-    <t>SN-66</t>
-  </si>
-  <si>
-    <t>SN-67</t>
-  </si>
-  <si>
-    <t>SN-68</t>
-  </si>
-  <si>
-    <t>SN-69</t>
-  </si>
-  <si>
-    <t>SN-70</t>
-  </si>
-  <si>
-    <t>SN-71</t>
-  </si>
-  <si>
-    <t>SN-72</t>
-  </si>
-  <si>
-    <t>SN-73</t>
-  </si>
-  <si>
-    <t>SN-74</t>
-  </si>
-  <si>
-    <t>SN-75</t>
-  </si>
-  <si>
-    <t>SN-76</t>
-  </si>
-  <si>
-    <t>SN-77</t>
-  </si>
-  <si>
-    <t>SN-78</t>
-  </si>
-  <si>
-    <t>SN-79</t>
-  </si>
-  <si>
-    <t>SN-80</t>
-  </si>
-  <si>
-    <t>SN-81</t>
-  </si>
-  <si>
-    <t>SN-82</t>
-  </si>
-  <si>
-    <t>SN-83</t>
-  </si>
-  <si>
-    <t>SN-84</t>
-  </si>
-  <si>
-    <t>SN-85</t>
-  </si>
-  <si>
-    <t>SN-86</t>
-  </si>
-  <si>
-    <t>SN-87</t>
-  </si>
-  <si>
-    <t>SN-88</t>
-  </si>
-  <si>
-    <t>SN-89</t>
-  </si>
-  <si>
-    <t>SN-90</t>
-  </si>
-  <si>
-    <t>SN-91</t>
-  </si>
-  <si>
-    <t>SN-92</t>
-  </si>
-  <si>
-    <t>SN-93</t>
-  </si>
-  <si>
-    <t>SN-94</t>
-  </si>
-  <si>
-    <t>SN-95</t>
-  </si>
-  <si>
-    <t>SN-96</t>
-  </si>
-  <si>
-    <t>SN-97</t>
-  </si>
-  <si>
-    <t>SN-98</t>
-  </si>
-  <si>
-    <t>SN-99</t>
-  </si>
-  <si>
-    <t>value_id</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Dissagregation</t>
-  </si>
-  <si>
-    <t>Labels</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Numerical</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>V-2</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>V-3</t>
-  </si>
-  <si>
-    <t>Age groups</t>
-  </si>
-  <si>
-    <t>V-6</t>
-  </si>
-  <si>
-    <t>V-7</t>
-  </si>
-  <si>
     <t>V-8</t>
   </si>
   <si>
@@ -838,9 +821,6 @@
     <t>V-99</t>
   </si>
   <si>
-    <t>source_id</t>
-  </si>
-  <si>
     <t>Address</t>
   </si>
   <si>
@@ -877,19 +857,19 @@
     <t>Helix: DM_BRTS</t>
   </si>
   <si>
+    <t>https://sdmx.data.unicef.org/ws/public/sdmxapi/rest/data/UNICEF,DM,1.0/</t>
+  </si>
+  <si>
     <t>Created</t>
   </si>
   <si>
     <t>automated</t>
   </si>
   <si>
-    <t>S-4</t>
-  </si>
-  <si>
     <t>Helix: DM_POP_URBN</t>
   </si>
   <si>
-    <t>S-5</t>
+    <t>SOWC 2019: UNICEF</t>
   </si>
   <si>
     <t>S-6</t>
@@ -1561,24 +1541,15 @@
     <t>Number of emigrants</t>
   </si>
   <si>
-    <t>I-12</t>
-  </si>
-  <si>
     <t>Crude rate of net migration (per 100,000 average population)</t>
   </si>
   <si>
-    <t>I-13</t>
-  </si>
-  <si>
     <t>Net migration rate (per 1,000 population) 2015−2020</t>
   </si>
   <si>
     <t>Calculated by UNICEF: SOWC 2019</t>
   </si>
   <si>
-    <t>I-14</t>
-  </si>
-  <si>
     <t>Urban population as a percentage of the total population</t>
   </si>
   <si>
@@ -2129,16 +2100,13 @@
   </si>
   <si>
     <t>This source updated source with ID = 4</t>
-  </si>
-  <si>
-    <t>https://unicef.sdmxcloud.org/ws/public/sdmxapi/rest/data/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2180,6 +2148,12 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2391,9 +2365,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2414,6 +2385,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2756,28 +2730,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17:L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47.81640625" customWidth="1"/>
-    <col min="4" max="6" width="13.81640625" customWidth="1"/>
-    <col min="7" max="7" width="10.1796875" customWidth="1"/>
-    <col min="8" max="8" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.7265625" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.85546875" customWidth="1"/>
+    <col min="4" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.7109375" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="27.75" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2815,7 +2789,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -2833,14 +2807,15 @@
       <c r="E2" s="1">
         <v>2020</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="1" t="str">
+        <f>VLOOKUP(F2,Value_type!$A$2:$F$100,3,FALSE)</f>
+        <v>Persons</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="I2" s="1" t="str">
         <f>VLOOKUP(H2,Source!$A$2:$F$100,3,FALSE)</f>
@@ -2850,7 +2825,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L2" t="str">
         <f>VLOOKUP(K2,Transformation!$A$2:$G$100,2,FALSE)</f>
@@ -2861,101 +2836,102 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="str">
         <f>VLOOKUP(B3,Indicator!$A$2:$F$100,5,FALSE)</f>
-        <v>Proportion of population at the beginning of the year, by age groups</v>
+        <v>Population at the beginning of the year by sex and age year</v>
       </c>
       <c r="D3" s="1">
         <f>VLOOKUP(B3,Indicator!$A$2:$F$100,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="16">
         <v>2020</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>21</v>
+      <c r="F3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="1" t="str">
+        <f>VLOOKUP(F3,Value_type!$A$2:$F$100,3,FALSE)</f>
+        <v>Persons</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="I3" s="1" t="str">
         <f>VLOOKUP(H3,Source!$A$2:$F$100,3,FALSE)</f>
-        <v>Calculation</v>
+        <v>NSI</v>
       </c>
       <c r="J3" s="1">
         <v>1</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="L3" t="str">
         <f>VLOOKUP(K3,Transformation!$A$2:$G$100,2,FALSE)</f>
-        <v>Proportional</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+        <v>No Transformation</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="str">
         <f>VLOOKUP(B4,Indicator!$A$2:$F$100,5,FALSE)</f>
-        <v xml:space="preserve">Annual births </v>
-      </c>
-      <c r="D4" s="1" t="str">
+        <v>Population at the beginning of the year by sex and age year</v>
+      </c>
+      <c r="D4" s="1">
         <f>VLOOKUP(B4,Indicator!$A$2:$F$100,6,FALSE)</f>
-        <v>DM_BRTS</v>
-      </c>
-      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="16">
         <v>2020</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>26</v>
+      <c r="F4" s="16" t="s">
+        <v>20</v>
       </c>
       <c r="G4" s="1" t="str">
         <f>VLOOKUP(F4,Value_type!$A$2:$F$100,3,FALSE)</f>
         <v>Persons</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="I4" s="1" t="str">
         <f>VLOOKUP(H4,Source!$A$2:$F$100,3,FALSE)</f>
-        <v>Helix: DM_BRTS</v>
+        <v>NSI</v>
       </c>
       <c r="J4" s="1">
         <v>1</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L4" t="str">
         <f>VLOOKUP(K4,Transformation!$A$2:$G$100,2,FALSE)</f>
         <v>No Transformation</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1" t="str">
         <f>VLOOKUP(B5,Indicator!$A$2:$F$100,5,FALSE)</f>
-        <v>Average Population</v>
+        <v>Proportion of population at the beginning of the year, by age groups</v>
       </c>
       <c r="D5" s="1">
         <f>VLOOKUP(B5,Indicator!$A$2:$F$100,6,FALSE)</f>
@@ -2965,13 +2941,14 @@
         <v>2020</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="G5" s="1" t="str">
+        <f>VLOOKUP(F5,Value_type!$A$2:$F$100,3,FALSE)</f>
+        <v>Percentage</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I5" s="1" t="str">
         <f>VLOOKUP(H5,Source!$A$2:$F$100,3,FALSE)</f>
@@ -2981,39 +2958,40 @@
         <v>1</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="L5" t="str">
         <f>VLOOKUP(K5,Transformation!$A$2:$G$100,2,FALSE)</f>
-        <v>Average</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+        <v>Proportional</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="str">
         <f>VLOOKUP(B6,Indicator!$A$2:$F$100,5,FALSE)</f>
-        <v>Proportion of population  (% of total population)</v>
+        <v>Proportion of population at the beginning of the year, by age groups</v>
       </c>
       <c r="D6" s="1">
         <f>VLOOKUP(B6,Indicator!$A$2:$F$100,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="16">
         <v>2020</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
+      </c>
+      <c r="G6" s="1" t="str">
+        <f>VLOOKUP(F6,Value_type!$A$2:$F$100,3,FALSE)</f>
+        <v>Percentage</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I6" s="1" t="str">
         <f>VLOOKUP(H6,Source!$A$2:$F$100,3,FALSE)</f>
@@ -3023,65 +3001,66 @@
         <v>1</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="L6" t="str">
         <f>VLOOKUP(K6,Transformation!$A$2:$G$100,2,FALSE)</f>
-        <v>Average</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+        <v>Proportional</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C7" s="1" t="str">
         <f>VLOOKUP(B7,Indicator!$A$2:$F$100,5,FALSE)</f>
-        <v xml:space="preserve">Age dependency ratio (population aged 0-14 and 65 and over to population aged 15-64, %) </v>
-      </c>
-      <c r="D7" s="1">
+        <v xml:space="preserve">Annual births </v>
+      </c>
+      <c r="D7" s="1" t="str">
         <f>VLOOKUP(B7,Indicator!$A$2:$F$100,6,FALSE)</f>
-        <v>0</v>
+        <v>DM_BRTS</v>
       </c>
       <c r="E7" s="1">
         <v>2020</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="1" t="str">
+        <f>VLOOKUP(F7,Value_type!$A$2:$F$100,3,FALSE)</f>
+        <v>Persons</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="I7" s="1" t="str">
         <f>VLOOKUP(H7,Source!$A$2:$F$100,3,FALSE)</f>
-        <v>Calculation</v>
+        <v>Helix: DM_BRTS</v>
       </c>
       <c r="J7" s="1">
         <v>1</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="L7" t="str">
         <f>VLOOKUP(K7,Transformation!$A$2:$G$100,2,FALSE)</f>
-        <v>Average</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+        <v>No Transformation</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C8" s="1" t="str">
         <f>VLOOKUP(B8,Indicator!$A$2:$F$100,5,FALSE)</f>
-        <v>Child dependency ratio (population aged 0-14 to population aged 15-64, %)</v>
+        <v>Average Population</v>
       </c>
       <c r="D8" s="1">
         <f>VLOOKUP(B8,Indicator!$A$2:$F$100,6,FALSE)</f>
@@ -3091,13 +3070,14 @@
         <v>2020</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="G8" s="1" t="str">
+        <f>VLOOKUP(F8,Value_type!$A$2:$F$100,3,FALSE)</f>
+        <v>Percentage</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I8" s="1" t="str">
         <f>VLOOKUP(H8,Source!$A$2:$F$100,3,FALSE)</f>
@@ -3107,23 +3087,23 @@
         <v>1</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L8" t="str">
         <f>VLOOKUP(K8,Transformation!$A$2:$G$100,2,FALSE)</f>
         <v>Average</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C9" s="1" t="str">
         <f>VLOOKUP(B9,Indicator!$A$2:$F$100,5,FALSE)</f>
-        <v>Old-age dependency ratio (population aged 65 and over  to population aged 15-64, %)</v>
+        <v>Proportion of population  (% of total population)</v>
       </c>
       <c r="D9" s="1">
         <f>VLOOKUP(B9,Indicator!$A$2:$F$100,6,FALSE)</f>
@@ -3133,13 +3113,14 @@
         <v>2020</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="G9" s="1" t="str">
+        <f>VLOOKUP(F9,Value_type!$A$2:$F$100,3,FALSE)</f>
+        <v>Percentage</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I9" s="1" t="str">
         <f>VLOOKUP(H9,Source!$A$2:$F$100,3,FALSE)</f>
@@ -3149,23 +3130,23 @@
         <v>1</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L9" t="str">
         <f>VLOOKUP(K9,Transformation!$A$2:$G$100,2,FALSE)</f>
         <v>Average</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C10" s="1" t="str">
         <f>VLOOKUP(B10,Indicator!$A$2:$F$100,5,FALSE)</f>
-        <v>Crude rate of natural change of population (live births minus deaths per 1,000 average population)</v>
+        <v xml:space="preserve">Age dependency ratio (population aged 0-14 and 65 and over to population aged 15-64, %) </v>
       </c>
       <c r="D10" s="1">
         <f>VLOOKUP(B10,Indicator!$A$2:$F$100,6,FALSE)</f>
@@ -3175,39 +3156,40 @@
         <v>2020</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>43</v>
+        <v>23</v>
+      </c>
+      <c r="G10" s="1" t="str">
+        <f>VLOOKUP(F10,Value_type!$A$2:$F$100,3,FALSE)</f>
+        <v>Percentage</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I10" s="1" t="str">
         <f>VLOOKUP(H10,Source!$A$2:$F$100,3,FALSE)</f>
-        <v>NSI</v>
+        <v>Calculation</v>
       </c>
       <c r="J10" s="1">
         <v>1</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="L10" t="str">
         <f>VLOOKUP(K10,Transformation!$A$2:$G$100,2,FALSE)</f>
-        <v>No Transformation</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+        <v>Average</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C11" s="1" t="str">
         <f>VLOOKUP(B11,Indicator!$A$2:$F$100,5,FALSE)</f>
-        <v>Number of immigrants</v>
+        <v>Child dependency ratio (population aged 0-14 to population aged 15-64, %)</v>
       </c>
       <c r="D11" s="1">
         <f>VLOOKUP(B11,Indicator!$A$2:$F$100,6,FALSE)</f>
@@ -3217,39 +3199,40 @@
         <v>2020</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
+      </c>
+      <c r="G11" s="1" t="str">
+        <f>VLOOKUP(F11,Value_type!$A$2:$F$100,3,FALSE)</f>
+        <v>Percentage</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I11" s="1" t="str">
         <f>VLOOKUP(H11,Source!$A$2:$F$100,3,FALSE)</f>
-        <v>NSI</v>
+        <v>Calculation</v>
       </c>
       <c r="J11" s="1">
         <v>1</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="L11" t="str">
         <f>VLOOKUP(K11,Transformation!$A$2:$G$100,2,FALSE)</f>
-        <v>No Transformation</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+        <v>Average</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C12" s="1" t="str">
         <f>VLOOKUP(B12,Indicator!$A$2:$F$100,5,FALSE)</f>
-        <v>Number of emigrants</v>
+        <v>Old-age dependency ratio (population aged 65 and over  to population aged 15-64, %)</v>
       </c>
       <c r="D12" s="1">
         <f>VLOOKUP(B12,Indicator!$A$2:$F$100,6,FALSE)</f>
@@ -3259,122 +3242,291 @@
         <v>2020</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
+      </c>
+      <c r="G12" s="1" t="str">
+        <f>VLOOKUP(F12,Value_type!$A$2:$F$100,3,FALSE)</f>
+        <v>Percentage</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I12" s="1" t="str">
         <f>VLOOKUP(H12,Source!$A$2:$F$100,3,FALSE)</f>
-        <v>NSI</v>
+        <v>Calculation</v>
       </c>
       <c r="J12" s="1">
         <v>1</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="L12" t="str">
         <f>VLOOKUP(K12,Transformation!$A$2:$G$100,2,FALSE)</f>
+        <v>Average</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="1" t="str">
+        <f>VLOOKUP(B13,Indicator!$A$2:$F$100,5,FALSE)</f>
+        <v>Crude rate of natural change of population (live births minus deaths per 1,000 average population)</v>
+      </c>
+      <c r="D13" s="1">
+        <f>VLOOKUP(B13,Indicator!$A$2:$F$100,6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2020</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="1" t="str">
+        <f>VLOOKUP(F13,Value_type!$A$2:$F$100,3,FALSE)</f>
+        <v>Rate</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="1" t="str">
+        <f>VLOOKUP(H13,Source!$A$2:$F$100,3,FALSE)</f>
+        <v>NSI</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" t="str">
+        <f>VLOOKUP(K13,Transformation!$A$2:$G$100,2,FALSE)</f>
         <v>No Transformation</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+    <row r="14" spans="1:16">
+      <c r="A14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="1" t="str">
+        <f>VLOOKUP(B14,Indicator!$A$2:$F$100,5,FALSE)</f>
+        <v>Number of immigrants</v>
+      </c>
+      <c r="D14" s="1">
+        <f>VLOOKUP(B14,Indicator!$A$2:$F$100,6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2020</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="1" t="str">
+        <f>VLOOKUP(F14,Value_type!$A$2:$F$100,3,FALSE)</f>
+        <v>Persons</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="1" t="str">
+        <f>VLOOKUP(H14,Source!$A$2:$F$100,3,FALSE)</f>
+        <v>NSI</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" t="str">
+        <f>VLOOKUP(K14,Transformation!$A$2:$G$100,2,FALSE)</f>
+        <v>No Transformation</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+      <c r="C15" s="1" t="str">
+        <f>VLOOKUP(B15,Indicator!$A$2:$F$100,5,FALSE)</f>
+        <v>Number of emigrants</v>
+      </c>
+      <c r="D15" s="1">
+        <f>VLOOKUP(B15,Indicator!$A$2:$F$100,6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2020</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="1" t="str">
+        <f>VLOOKUP(F15,Value_type!$A$2:$F$100,3,FALSE)</f>
+        <v>Persons</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="1" t="str">
+        <f>VLOOKUP(H15,Source!$A$2:$F$100,3,FALSE)</f>
+        <v>NSI</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" t="str">
+        <f>VLOOKUP(K15,Transformation!$A$2:$G$100,2,FALSE)</f>
+        <v>No Transformation</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
+      <c r="C16" s="1" t="str">
+        <f>VLOOKUP(B16,Indicator!$A$2:$F$100,5,FALSE)</f>
+        <v>Crude rate of net migration (per 100,000 average population)</v>
+      </c>
+      <c r="D16" s="1">
+        <f>VLOOKUP(B16,Indicator!$A$2:$F$100,6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2020</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="1" t="str">
+        <f>VLOOKUP(F16,Value_type!$A$2:$F$100,3,FALSE)</f>
+        <v>Rate</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="1" t="str">
+        <f>VLOOKUP(H16,Source!$A$2:$F$100,3,FALSE)</f>
+        <v>NSI</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" t="str">
+        <f>VLOOKUP(K16,Transformation!$A$2:$G$100,2,FALSE)</f>
+        <v>No Transformation</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C17" s="1" t="str">
+        <f>VLOOKUP(B17,Indicator!$A$2:$F$100,5,FALSE)</f>
+        <v>Net migration rate (per 1,000 population) 2015−2020</v>
+      </c>
+      <c r="D17" s="1">
+        <f>VLOOKUP(B17,Indicator!$A$2:$F$100,6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2020</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="1" t="str">
+        <f>VLOOKUP(F17,Value_type!$A$2:$F$100,3,FALSE)</f>
+        <v>Rate</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I17" s="1" t="str">
+        <f>VLOOKUP(H17,Source!$A$2:$F$100,3,FALSE)</f>
+        <v>SOWC 2019: UNICEF</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17" t="str">
+        <f>VLOOKUP(K17,Transformation!$A$2:$G$100,2,FALSE)</f>
+        <v>No Transformation</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="1" t="str">
+        <f>VLOOKUP(B18,Indicator!$A$2:$F$100,5,FALSE)</f>
+        <v>Urban population as a percentage of the total population</v>
+      </c>
+      <c r="D18" s="1" t="str">
+        <f>VLOOKUP(B18,Indicator!$A$2:$F$100,6,FALSE)</f>
+        <v>DM_POP_URBN</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2020</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="1" t="str">
+        <f>VLOOKUP(F18,Value_type!$A$2:$F$100,3,FALSE)</f>
+        <v>Percentage</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I18" s="1" t="str">
+        <f>VLOOKUP(H18,Source!$A$2:$F$100,3,FALSE)</f>
+        <v>Helix: DM_POP_URBN</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18" t="str">
+        <f>VLOOKUP(K18,Transformation!$A$2:$G$100,2,FALSE)</f>
+        <v>No Transformation</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -3387,9 +3539,9 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -3402,623 +3554,630 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="G21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="G22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="G23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="G24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="G25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="G26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="G27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="G28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="G29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="G30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="G31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="G32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="G33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="G34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="G35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="G36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="G37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="G38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="G39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="G40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="G41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="G42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="G43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="G44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="G45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="G46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="G47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="G48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="G49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="G50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D71" s="1"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D86" s="1"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D87" s="1"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D92" s="1"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D97" s="1"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D98" s="1"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D100" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EE116690-F59B-479C-B14C-AE1BF6B370A4}">
           <x14:formula1>
             <xm:f>validation_set!$A$2:$A$100</xm:f>
           </x14:formula1>
           <xm:sqref>J2:J100</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{99D07128-9A28-4C84-8AFE-82C81607FDC1}">
           <x14:formula1>
             <xm:f>Indicator!$A$2:$A$100</xm:f>
           </x14:formula1>
           <xm:sqref>B2:B100</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{153404CE-AA89-4BFB-8C24-00F70ECD2FA3}">
           <x14:formula1>
             <xm:f>Value_type!$A$2:$A$100</xm:f>
           </x14:formula1>
-          <xm:sqref>F4:F100</xm:sqref>
+          <xm:sqref>F2:F100</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{36D865C8-B0C0-4D5A-B675-CCD9162E18B7}">
           <x14:formula1>
             <xm:f>Source!$A$2:$A$100</xm:f>
           </x14:formula1>
           <xm:sqref>H2:H100</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9BBF570F-1E46-4F6B-A2F4-2CD848A466FA}">
           <x14:formula1>
             <xm:f>Transformation!$A$2:$A$100</xm:f>
           </x14:formula1>
           <xm:sqref>K2:K100</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{56961688-0413-4806-9E71-238E46B7220F}">
           <x14:formula1>
             <xm:f>Input_Lists!$F$2:$F$5</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E100</xm:sqref>
+          <xm:sqref>E7:E100 E5 E2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1B1AABF2-DEB2-4A6C-9765-032390CA6DC0}">
           <x14:formula1>
             <xm:f>Input_Lists!$I$2:$I$10</xm:f>
           </x14:formula1>
           <xm:sqref>G2:G100</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DF6FC592-F1B1-4D2A-A35D-C9C28133C134}">
+          <x14:formula1>
+            <xm:f>Input_Lists!$F$2:$F$30</xm:f>
+          </x14:formula1>
+          <xm:sqref>E3:E4 E6</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4027,46 +4186,46 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E98738AE-0E4F-4E31-BA66-1B9EBC2B309F}">
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="2.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="40.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="89.54296875" customWidth="1"/>
-    <col min="9" max="9" width="18.1796875" customWidth="1"/>
-    <col min="10" max="10" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.54296875" customWidth="1"/>
-    <col min="12" max="12" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.54296875" customWidth="1"/>
+    <col min="7" max="7" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="89.5703125" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" customWidth="1"/>
     <col min="14" max="14" width="18" customWidth="1"/>
-    <col min="16" max="16" width="15.7265625" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="27.75" customHeight="1">
       <c r="A1" s="9" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C1" s="10" t="s">
+        <v>630</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>631</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>632</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>633</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>3</v>
@@ -4075,283 +4234,283 @@
         <v>2</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L1" s="12" t="s">
+        <v>633</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="N1" s="19" t="s">
         <v>634</v>
       </c>
-      <c r="M1" s="13" t="s">
-        <v>460</v>
-      </c>
-      <c r="N1" s="19" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="16">
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
+        <v>590</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>591</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>592</v>
-      </c>
       <c r="D2" s="16" t="s">
+        <v>635</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>636</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="F2" s="16" t="s">
         <v>637</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="G2" s="16" t="s">
         <v>638</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="H2" s="16" t="s">
         <v>639</v>
       </c>
-      <c r="H2" s="16" t="s">
-        <v>640</v>
-      </c>
       <c r="I2" s="16" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="J2" s="16"/>
       <c r="K2" s="16" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="L2" s="16">
         <f>IF(OR(I2="Updated",I2="Created"), 1, 0)</f>
         <v>1</v>
       </c>
       <c r="M2" s="16" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="16">
         <v>2</v>
       </c>
       <c r="B3" s="16" t="s">
+        <v>590</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>591</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>592</v>
-      </c>
       <c r="D3" s="16" t="s">
+        <v>642</v>
+      </c>
+      <c r="E3" s="16" t="s">
         <v>643</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="F3" s="16" t="s">
         <v>644</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="G3" s="16" t="s">
         <v>645</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="H3" s="16" t="s">
         <v>646</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="I3" s="16" t="s">
+        <v>598</v>
+      </c>
+      <c r="J3" s="16" t="s">
         <v>647</v>
       </c>
-      <c r="I3" s="16" t="s">
-        <v>599</v>
-      </c>
-      <c r="J3" s="16" t="s">
+      <c r="K3" s="16" t="s">
         <v>648</v>
-      </c>
-      <c r="K3" s="16" t="s">
-        <v>649</v>
       </c>
       <c r="L3" s="16">
         <f>IF(OR(I3="Updated",I3="Created"), 1, 0)</f>
         <v>1</v>
       </c>
       <c r="M3" s="16" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15">
       <c r="A4" s="16">
         <v>3</v>
       </c>
       <c r="B4" s="16" t="s">
+        <v>590</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>591</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>592</v>
-      </c>
       <c r="D4" s="16" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E4" s="16" t="s">
+        <v>649</v>
+      </c>
+      <c r="F4" s="16" t="s">
         <v>650</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="G4" s="16" t="s">
         <v>651</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="H4" s="16" t="s">
         <v>652</v>
       </c>
-      <c r="H4" s="16" t="s">
-        <v>653</v>
-      </c>
       <c r="I4" s="16" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="J4" s="16"/>
       <c r="K4" s="16" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="L4" s="16">
         <f>IF(OR(I4="Updated",I4="Created"), 1, 0)</f>
         <v>1</v>
       </c>
       <c r="M4" s="16" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15">
       <c r="A5" s="16">
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
+        <v>590</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>591</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>592</v>
-      </c>
       <c r="D5" s="16" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E5" s="16" t="s">
+        <v>653</v>
+      </c>
+      <c r="F5" s="16" t="s">
         <v>654</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="G5" s="16" t="s">
         <v>655</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="H5" s="16" t="s">
         <v>656</v>
       </c>
-      <c r="H5" s="16" t="s">
-        <v>657</v>
-      </c>
       <c r="I5" s="16" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="J5" s="16"/>
       <c r="K5" s="16" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="L5" s="16">
         <f>IF(OR(I5="Updated",I5="Created"), 1, 0)</f>
         <v>0</v>
       </c>
       <c r="M5" s="16" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>592</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="F6" s="16" t="s">
         <v>658</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="G6" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>661</v>
-      </c>
       <c r="I6" s="1" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="L6" s="16">
         <v>0</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>592</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="F7" s="16" t="s">
         <v>658</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="G7" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>660</v>
-      </c>
       <c r="H7" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="L7" s="16">
         <f>IF(OR(I7="Updated",I7="Created"), 1, 0)</f>
         <v>1</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="N7" s="1">
         <v>5</v>
@@ -4363,37 +4522,37 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{28E91955-5E41-47FF-8E26-6E1FD3F937DE}">
           <x14:formula1>
             <xm:f>Input_Lists!$A$2:$A$3</xm:f>
           </x14:formula1>
           <xm:sqref>B2:B4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9C285863-B4A2-4E3C-867E-4BF75BE8EF84}">
           <x14:formula1>
             <xm:f>Input_Lists!$B$2:$B$4</xm:f>
           </x14:formula1>
           <xm:sqref>C2:C1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{27602A60-75D4-47CF-A60B-DE38B1838B95}">
           <x14:formula1>
             <xm:f>Input_Lists!$E$2:$E$4</xm:f>
           </x14:formula1>
           <xm:sqref>I2:I1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{039A5B8D-3DE8-4AAB-89E0-456286140910}">
           <x14:formula1>
             <xm:f>Input_Lists!$D$13:$D$15</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2CB0F996-B425-4FE7-9DCE-7CB7A50DD18B}">
           <x14:formula1>
             <xm:f>Input_Lists!$C$2:$C$3</xm:f>
           </x14:formula1>
           <xm:sqref>D2:D1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DC415B73-C6C3-4C80-A097-6AAD7E2324B0}">
           <x14:formula1>
             <xm:f>Input_Lists!$G$2:$G$4</xm:f>
           </x14:formula1>
@@ -4406,77 +4565,77 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B17A1EB0-1449-49F0-84AF-38FED3692993}">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="2.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="103.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.26953125" customWidth="1"/>
-    <col min="5" max="5" width="21.54296875" customWidth="1"/>
-    <col min="6" max="6" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.1796875" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="103.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="30.75" customHeight="1" thickBot="1">
       <c r="A1" s="9" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>664</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>665</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1">
@@ -4486,21 +4645,21 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1">
@@ -4510,21 +4669,21 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1">
@@ -4534,21 +4693,21 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1">
@@ -4556,24 +4715,24 @@
       </c>
       <c r="G6" s="1"/>
       <c r="H6" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>670</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>671</v>
       </c>
       <c r="F7" s="1">
         <v>2020</v>
@@ -4587,28 +4746,28 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1"/>
-    <hyperlink ref="C4" r:id="rId2"/>
-    <hyperlink ref="C5" r:id="rId3"/>
-    <hyperlink ref="C6" r:id="rId4"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{2430EF87-6881-4BAA-AA1D-42BE1DA85827}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{838211C2-A205-4CC7-825B-4D4D5904BFB2}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{0DB73385-90CF-4DF8-856F-F467943F9710}"/>
+    <hyperlink ref="C6" r:id="rId4" xr:uid="{E9417C14-1C7C-427C-A315-94478086ECD4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3475E2C3-ADCD-4745-B593-D4441F58B06C}">
           <x14:formula1>
             <xm:f>Input_Lists!$F$2:$F$5</xm:f>
           </x14:formula1>
           <xm:sqref>F3:F5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3755283C-7093-420C-964E-55F642AD7E4E}">
           <x14:formula1>
             <xm:f>Input_Lists!$E$2:$E$4</xm:f>
           </x14:formula1>
           <xm:sqref>D3:D5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9915FD7E-52ED-4703-938F-4EA812C451A3}">
           <x14:formula1>
             <xm:f>Input_Lists!$K$2:$K$7</xm:f>
           </x14:formula1>
@@ -4621,89 +4780,89 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C328BC9-9DC4-4E47-897A-81069BFDF0B6}">
   <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
   <cols>
     <col min="2" max="2" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.54296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.1796875" customWidth="1"/>
-    <col min="6" max="6" width="24.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.26953125" customWidth="1"/>
-    <col min="8" max="8" width="13.26953125" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" customWidth="1"/>
+    <col min="6" max="6" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="15" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="15" customFormat="1" ht="32.25" customHeight="1">
       <c r="A1" s="9" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G1" s="22"/>
     </row>
-    <row r="2" spans="1:9" s="14" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" s="14" customFormat="1" ht="15.6">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C2" s="31" t="s">
-        <v>15</v>
+        <v>144</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>145</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>143</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>145</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E3" s="25"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E3" s="25"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -4711,502 +4870,520 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>150</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>43</v>
+        <v>149</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
       <c r="A88" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
       <c r="A95" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
       <c r="A96" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
       <c r="A98" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
       <c r="A99" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
       <c r="A100" s="1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -5214,19 +5391,19 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{59E748DD-07F5-4DBE-BA1A-5E8058741740}">
           <x14:formula1>
             <xm:f>Input_Lists!$H$2:$H$5</xm:f>
           </x14:formula1>
           <xm:sqref>B2:B100</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5303A428-92D4-45C6-8516-7E34A2D663AB}">
           <x14:formula1>
             <xm:f>Input_Lists!$I$2:$I$20</xm:f>
           </x14:formula1>
           <xm:sqref>C2:C100</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A892FD7B-4473-48B4-A3B3-2F8DF8F58FDB}">
           <x14:formula1>
             <xm:f>Input_Lists!$J$2:$J$4</xm:f>
           </x14:formula1>
@@ -5239,112 +5416,112 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE350E3-E835-4EBE-A712-D2ED78393107}">
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.26953125" customWidth="1"/>
-    <col min="3" max="3" width="20.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.26953125" customWidth="1"/>
-    <col min="5" max="5" width="15.26953125" customWidth="1"/>
-    <col min="6" max="6" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.54296875" customWidth="1"/>
-    <col min="8" max="8" width="21.54296875" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.28515625" style="26" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="30.75" customHeight="1">
       <c r="A1" s="9" t="s">
-        <v>241</v>
+        <v>7</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="I1" s="29" t="s">
-        <v>246</v>
-      </c>
-      <c r="J1" s="30" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+        <v>143</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="D2" s="26"/>
+        <v>250</v>
+      </c>
+      <c r="D2" s="33"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="D3" s="26"/>
+        <v>252</v>
+      </c>
+      <c r="D3" s="33"/>
       <c r="E3" s="8"/>
       <c r="F3" s="1"/>
       <c r="G3" s="6"/>
       <c r="H3" s="1"/>
       <c r="I3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>672</v>
+        <v>255</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>256</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="F4" s="1">
         <v>2020</v>
@@ -5352,24 +5529,24 @@
       <c r="G4" s="6"/>
       <c r="H4" s="1"/>
       <c r="I4" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D5" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="E5" s="8" t="s">
         <v>257</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>672</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>254</v>
       </c>
       <c r="F5" s="1">
         <v>2020</v>
@@ -5377,526 +5554,529 @@
       <c r="G5" s="6"/>
       <c r="H5" s="1"/>
       <c r="I5" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="6"/>
+        <v>53</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D6" s="33"/>
       <c r="E6" s="8"/>
       <c r="F6" s="1"/>
       <c r="G6" s="6"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
       <c r="E7" s="8"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
       <c r="A88" s="1" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
       <c r="A95" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
       <c r="A96" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
       <c r="A98" s="1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
       <c r="A99" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
       <c r="A100" s="1" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1"/>
-    <hyperlink ref="D5" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{290E507C-32A8-4C08-82F1-12DE1C4DD2F3}"/>
+    <hyperlink ref="D5" r:id="rId2" xr:uid="{3F8811F9-D2D5-4B19-8021-4014861090DE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C60F932B-5A20-4D5A-94D0-14A6DD60DEC9}">
           <x14:formula1>
             <xm:f>Input_Lists!$F$2:$F$5</xm:f>
           </x14:formula1>
           <xm:sqref>F2:G100</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4A52A9F9-1332-4F23-849F-FEA84C42DAC1}">
           <x14:formula1>
             <xm:f>Input_Lists!$E$2:$E$4</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E100</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{60410620-4944-40FC-9422-753B5440BAE7}">
           <x14:formula1>
             <xm:f>Input_Lists!$K$2:$K$10</xm:f>
           </x14:formula1>
           <xm:sqref>B2:B100</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3AC52421-B57E-404D-9179-AAE4FAE0CF2F}">
           <x14:formula1>
             <xm:f>Input_Lists!$L$2:$L$10</xm:f>
           </x14:formula1>
@@ -5909,95 +6089,95 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7665CF6-0DBC-44DD-9C53-9F0CA8B9BDD0}">
   <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="1"/>
-    <col min="2" max="2" width="21.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.7265625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="33.75" customHeight="1" thickBot="1">
       <c r="A1" s="9" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>357</v>
+        <v>16</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>359</v>
       </c>
       <c r="C2" s="1">
         <v>2020</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>358</v>
+        <v>25</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>360</v>
       </c>
       <c r="C3" s="1">
         <v>2020</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>359</v>
+        <v>33</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>361</v>
       </c>
       <c r="C4" s="1">
         <v>2020</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1">
@@ -6005,594 +6185,594 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="B5" s="28"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+        <v>362</v>
+      </c>
+      <c r="B5" s="27"/>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="B6" s="28"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+        <v>363</v>
+      </c>
+      <c r="B6" s="27"/>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B7" s="28"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+        <v>364</v>
+      </c>
+      <c r="B7" s="27"/>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="B8" s="28"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+        <v>365</v>
+      </c>
+      <c r="B8" s="27"/>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="B9" s="28"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+        <v>366</v>
+      </c>
+      <c r="B9" s="27"/>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B10" s="28"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+        <v>367</v>
+      </c>
+      <c r="B10" s="27"/>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="B11" s="28"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+        <v>368</v>
+      </c>
+      <c r="B11" s="27"/>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="B12" s="28"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+        <v>369</v>
+      </c>
+      <c r="B12" s="27"/>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="B13" s="28"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+        <v>370</v>
+      </c>
+      <c r="B13" s="27"/>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="B14" s="28"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+        <v>371</v>
+      </c>
+      <c r="B14" s="27"/>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="B15" s="28"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+        <v>372</v>
+      </c>
+      <c r="B15" s="27"/>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="B16" s="28"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+        <v>373</v>
+      </c>
+      <c r="B16" s="27"/>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="B17" s="28"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+        <v>374</v>
+      </c>
+      <c r="B17" s="27"/>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="B18" s="28"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+        <v>375</v>
+      </c>
+      <c r="B18" s="27"/>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="B19" s="28"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+        <v>376</v>
+      </c>
+      <c r="B19" s="27"/>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B20" s="28"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+        <v>377</v>
+      </c>
+      <c r="B20" s="27"/>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="B21" s="28"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+        <v>378</v>
+      </c>
+      <c r="B21" s="27"/>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B22" s="28"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+        <v>379</v>
+      </c>
+      <c r="B22" s="27"/>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="B23" s="28"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+        <v>380</v>
+      </c>
+      <c r="B23" s="27"/>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="B24" s="28"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+        <v>381</v>
+      </c>
+      <c r="B24" s="27"/>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="B25" s="28"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+        <v>382</v>
+      </c>
+      <c r="B25" s="27"/>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B26" s="28"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+        <v>383</v>
+      </c>
+      <c r="B26" s="27"/>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="B27" s="28"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+        <v>384</v>
+      </c>
+      <c r="B27" s="27"/>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="B28" s="28"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+        <v>385</v>
+      </c>
+      <c r="B28" s="27"/>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="B29" s="28"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+        <v>386</v>
+      </c>
+      <c r="B29" s="27"/>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="B30" s="28"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+        <v>387</v>
+      </c>
+      <c r="B30" s="27"/>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="B31" s="28"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+        <v>388</v>
+      </c>
+      <c r="B31" s="27"/>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="B32" s="28"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+        <v>389</v>
+      </c>
+      <c r="B32" s="27"/>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="B33" s="28"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+        <v>390</v>
+      </c>
+      <c r="B33" s="27"/>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="B34" s="28"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+        <v>391</v>
+      </c>
+      <c r="B34" s="27"/>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="B35" s="28"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+        <v>392</v>
+      </c>
+      <c r="B35" s="27"/>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="B36" s="28"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+        <v>393</v>
+      </c>
+      <c r="B36" s="27"/>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="B37" s="28"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+        <v>394</v>
+      </c>
+      <c r="B37" s="27"/>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="B38" s="28"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+        <v>395</v>
+      </c>
+      <c r="B38" s="27"/>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="B39" s="28"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+        <v>396</v>
+      </c>
+      <c r="B39" s="27"/>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="B40" s="28"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+        <v>397</v>
+      </c>
+      <c r="B40" s="27"/>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="B41" s="28"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+        <v>398</v>
+      </c>
+      <c r="B41" s="27"/>
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="B42" s="28"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+        <v>399</v>
+      </c>
+      <c r="B42" s="27"/>
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="B43" s="28"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+        <v>400</v>
+      </c>
+      <c r="B43" s="27"/>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="B44" s="28"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+        <v>401</v>
+      </c>
+      <c r="B44" s="27"/>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="B45" s="28"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+        <v>402</v>
+      </c>
+      <c r="B45" s="27"/>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="B46" s="28"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+        <v>403</v>
+      </c>
+      <c r="B46" s="27"/>
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="B47" s="28"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+        <v>404</v>
+      </c>
+      <c r="B47" s="27"/>
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="B48" s="28"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+        <v>405</v>
+      </c>
+      <c r="B48" s="27"/>
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="B49" s="28"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+        <v>406</v>
+      </c>
+      <c r="B49" s="27"/>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="B50" s="28"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+        <v>407</v>
+      </c>
+      <c r="B50" s="27"/>
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="B51" s="28"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+        <v>408</v>
+      </c>
+      <c r="B51" s="27"/>
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="B52" s="28"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+        <v>409</v>
+      </c>
+      <c r="B52" s="27"/>
+    </row>
+    <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="B53" s="28"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+        <v>410</v>
+      </c>
+      <c r="B53" s="27"/>
+    </row>
+    <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="B54" s="28"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+        <v>411</v>
+      </c>
+      <c r="B54" s="27"/>
+    </row>
+    <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="B55" s="28"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+        <v>412</v>
+      </c>
+      <c r="B55" s="27"/>
+    </row>
+    <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="B56" s="28"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+        <v>413</v>
+      </c>
+      <c r="B56" s="27"/>
+    </row>
+    <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="B57" s="28"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+        <v>414</v>
+      </c>
+      <c r="B57" s="27"/>
+    </row>
+    <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B58" s="28"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+        <v>415</v>
+      </c>
+      <c r="B58" s="27"/>
+    </row>
+    <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="B59" s="28"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+        <v>416</v>
+      </c>
+      <c r="B59" s="27"/>
+    </row>
+    <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="B60" s="28"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+        <v>417</v>
+      </c>
+      <c r="B60" s="27"/>
+    </row>
+    <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="B61" s="28"/>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+        <v>418</v>
+      </c>
+      <c r="B61" s="27"/>
+    </row>
+    <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="B62" s="28"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+        <v>419</v>
+      </c>
+      <c r="B62" s="27"/>
+    </row>
+    <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="B63" s="28"/>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+        <v>420</v>
+      </c>
+      <c r="B63" s="27"/>
+    </row>
+    <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="B64" s="28"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+        <v>421</v>
+      </c>
+      <c r="B64" s="27"/>
+    </row>
+    <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="B65" s="28"/>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+        <v>422</v>
+      </c>
+      <c r="B65" s="27"/>
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="B66" s="28"/>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+        <v>423</v>
+      </c>
+      <c r="B66" s="27"/>
+    </row>
+    <row r="67" spans="1:2">
       <c r="A67" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="B67" s="28"/>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+        <v>424</v>
+      </c>
+      <c r="B67" s="27"/>
+    </row>
+    <row r="68" spans="1:2">
       <c r="A68" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="B68" s="28"/>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+        <v>425</v>
+      </c>
+      <c r="B68" s="27"/>
+    </row>
+    <row r="69" spans="1:2">
       <c r="A69" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="B69" s="28"/>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+        <v>426</v>
+      </c>
+      <c r="B69" s="27"/>
+    </row>
+    <row r="70" spans="1:2">
       <c r="A70" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="B70" s="28"/>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+        <v>427</v>
+      </c>
+      <c r="B70" s="27"/>
+    </row>
+    <row r="71" spans="1:2">
       <c r="A71" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="B71" s="28"/>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+        <v>428</v>
+      </c>
+      <c r="B71" s="27"/>
+    </row>
+    <row r="72" spans="1:2">
       <c r="A72" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="B72" s="28"/>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+        <v>429</v>
+      </c>
+      <c r="B72" s="27"/>
+    </row>
+    <row r="73" spans="1:2">
       <c r="A73" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="B73" s="28"/>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+        <v>430</v>
+      </c>
+      <c r="B73" s="27"/>
+    </row>
+    <row r="74" spans="1:2">
       <c r="A74" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="B74" s="28"/>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+        <v>431</v>
+      </c>
+      <c r="B74" s="27"/>
+    </row>
+    <row r="75" spans="1:2">
       <c r="A75" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="B75" s="28"/>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+        <v>432</v>
+      </c>
+      <c r="B75" s="27"/>
+    </row>
+    <row r="76" spans="1:2">
       <c r="A76" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="B76" s="28"/>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+        <v>433</v>
+      </c>
+      <c r="B76" s="27"/>
+    </row>
+    <row r="77" spans="1:2">
       <c r="A77" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="B77" s="28"/>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+        <v>434</v>
+      </c>
+      <c r="B77" s="27"/>
+    </row>
+    <row r="78" spans="1:2">
       <c r="A78" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="B78" s="28"/>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+        <v>435</v>
+      </c>
+      <c r="B78" s="27"/>
+    </row>
+    <row r="79" spans="1:2">
       <c r="A79" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="B79" s="28"/>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+        <v>436</v>
+      </c>
+      <c r="B79" s="27"/>
+    </row>
+    <row r="80" spans="1:2">
       <c r="A80" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="B80" s="28"/>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+        <v>437</v>
+      </c>
+      <c r="B80" s="27"/>
+    </row>
+    <row r="81" spans="1:2">
       <c r="A81" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="B81" s="28"/>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+        <v>438</v>
+      </c>
+      <c r="B81" s="27"/>
+    </row>
+    <row r="82" spans="1:2">
       <c r="A82" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="B82" s="28"/>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+        <v>439</v>
+      </c>
+      <c r="B82" s="27"/>
+    </row>
+    <row r="83" spans="1:2">
       <c r="A83" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="B83" s="28"/>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+        <v>440</v>
+      </c>
+      <c r="B83" s="27"/>
+    </row>
+    <row r="84" spans="1:2">
       <c r="A84" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="B84" s="28"/>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+        <v>441</v>
+      </c>
+      <c r="B84" s="27"/>
+    </row>
+    <row r="85" spans="1:2">
       <c r="A85" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="B85" s="28"/>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+        <v>442</v>
+      </c>
+      <c r="B85" s="27"/>
+    </row>
+    <row r="86" spans="1:2">
       <c r="A86" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="B86" s="28"/>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+        <v>443</v>
+      </c>
+      <c r="B86" s="27"/>
+    </row>
+    <row r="87" spans="1:2">
       <c r="A87" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="B87" s="28"/>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+        <v>444</v>
+      </c>
+      <c r="B87" s="27"/>
+    </row>
+    <row r="88" spans="1:2">
       <c r="A88" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="B88" s="28"/>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+        <v>445</v>
+      </c>
+      <c r="B88" s="27"/>
+    </row>
+    <row r="89" spans="1:2">
       <c r="A89" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="B89" s="28"/>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+        <v>446</v>
+      </c>
+      <c r="B89" s="27"/>
+    </row>
+    <row r="90" spans="1:2">
       <c r="A90" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="B90" s="28"/>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+        <v>447</v>
+      </c>
+      <c r="B90" s="27"/>
+    </row>
+    <row r="91" spans="1:2">
       <c r="A91" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="B91" s="28"/>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+        <v>448</v>
+      </c>
+      <c r="B91" s="27"/>
+    </row>
+    <row r="92" spans="1:2">
       <c r="A92" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="B92" s="28"/>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+        <v>449</v>
+      </c>
+      <c r="B92" s="27"/>
+    </row>
+    <row r="93" spans="1:2">
       <c r="A93" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="B93" s="28"/>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+        <v>450</v>
+      </c>
+      <c r="B93" s="27"/>
+    </row>
+    <row r="94" spans="1:2">
       <c r="A94" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="B94" s="28"/>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+        <v>451</v>
+      </c>
+      <c r="B94" s="27"/>
+    </row>
+    <row r="95" spans="1:2">
       <c r="A95" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="B95" s="28"/>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+        <v>452</v>
+      </c>
+      <c r="B95" s="27"/>
+    </row>
+    <row r="96" spans="1:2">
       <c r="A96" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="B96" s="28"/>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+        <v>453</v>
+      </c>
+      <c r="B96" s="27"/>
+    </row>
+    <row r="97" spans="1:2">
       <c r="A97" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="B97" s="28"/>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+        <v>454</v>
+      </c>
+      <c r="B97" s="27"/>
+    </row>
+    <row r="98" spans="1:2">
       <c r="A98" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="B98" s="28"/>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+        <v>455</v>
+      </c>
+      <c r="B98" s="27"/>
+    </row>
+    <row r="99" spans="1:2">
       <c r="A99" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="B99" s="28"/>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+        <v>456</v>
+      </c>
+      <c r="B99" s="27"/>
+    </row>
+    <row r="100" spans="1:2">
       <c r="A100" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="B100" s="28"/>
+        <v>457</v>
+      </c>
+      <c r="B100" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{500D91DE-B3DA-42AB-98E2-8536BDAB695A}">
           <x14:formula1>
             <xm:f>Input_Lists!$F$2:$F$5</xm:f>
           </x14:formula1>
           <xm:sqref>C2:C100</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FADC33CC-AB41-4C8B-A6E4-97AE6809F035}">
           <x14:formula1>
             <xm:f>Input_Lists!$E$2:$E$10</xm:f>
           </x14:formula1>
@@ -6605,43 +6785,43 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DB0602F-A6E5-44D0-9D0A-02881BA44155}">
   <dimension ref="A1:M100"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.81640625" customWidth="1"/>
-    <col min="5" max="5" width="43.1796875" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" customWidth="1"/>
+    <col min="5" max="5" width="43.140625" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="8" width="12.54296875" customWidth="1"/>
-    <col min="9" max="9" width="10.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.81640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.1796875" customWidth="1"/>
-    <col min="12" max="12" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.7265625" customWidth="1"/>
+    <col min="7" max="8" width="12.5703125" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="27.75" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>2</v>
@@ -6650,42 +6830,42 @@
         <v>3</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="J1" s="23" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="K1" s="20" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>464</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>465</v>
-      </c>
-      <c r="E2" s="27" t="s">
         <v>466</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>467</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>468</v>
       </c>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
@@ -6694,26 +6874,26 @@
         <v>1</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K2" s="16"/>
       <c r="M2" s="16"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13">
       <c r="A3" s="16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>464</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>465</v>
-      </c>
-      <c r="E3" s="27" t="s">
+        <v>466</v>
+      </c>
+      <c r="D3" s="26" t="s">
         <v>467</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>469</v>
       </c>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
@@ -6722,33 +6902,33 @@
         <v>1</v>
       </c>
       <c r="J3" s="16" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="K3" s="16"/>
       <c r="L3" s="1"/>
       <c r="M3" s="16"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13">
       <c r="A4" s="16" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>464</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>465</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>468</v>
+        <v>466</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>467</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>470</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="H4" s="16">
         <v>2020</v>
@@ -6757,28 +6937,28 @@
         <v>1</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K4" s="16"/>
-      <c r="M4" s="33" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M4" s="32" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="16" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>464</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>471</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>472</v>
+        <v>466</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>473</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>474</v>
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
@@ -6787,26 +6967,26 @@
         <v>1</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="16"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13">
       <c r="A6" s="16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>464</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>473</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>474</v>
+        <v>466</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>475</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>476</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
@@ -6815,25 +6995,25 @@
         <v>1</v>
       </c>
       <c r="J6" s="16" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="M6" s="16"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13">
       <c r="A7" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>473</v>
-      </c>
-      <c r="E7" s="28" t="s">
+        <v>466</v>
+      </c>
+      <c r="D7" s="27" t="s">
         <v>475</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>477</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="1"/>
@@ -6842,25 +7022,25 @@
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13">
       <c r="A8" s="16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>473</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>476</v>
+        <v>466</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>475</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>478</v>
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="1"/>
@@ -6869,143 +7049,143 @@
         <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13">
       <c r="A9" s="16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C9" t="s">
-        <v>464</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>473</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>477</v>
+        <v>466</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>475</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>479</v>
       </c>
       <c r="I9" s="1">
         <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C10" t="s">
-        <v>464</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>478</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>479</v>
+        <v>466</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>480</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>481</v>
       </c>
       <c r="I10" s="1">
         <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C11" t="s">
-        <v>464</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>478</v>
-      </c>
-      <c r="E11" s="28" t="s">
+        <v>466</v>
+      </c>
+      <c r="D11" s="27" t="s">
         <v>480</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>482</v>
       </c>
       <c r="I11" s="1">
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C12" t="s">
-        <v>464</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>478</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>481</v>
+        <v>466</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>480</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>483</v>
       </c>
       <c r="I12" s="1">
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="16" t="s">
-        <v>482</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C13" t="s">
-        <v>464</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>478</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>483</v>
+        <v>466</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>480</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>484</v>
       </c>
       <c r="I13" s="1">
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="16" t="s">
-        <v>484</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C14" t="s">
-        <v>464</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>478</v>
-      </c>
-      <c r="E14" s="28" t="s">
+        <v>466</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>480</v>
+      </c>
+      <c r="E14" s="27" t="s">
         <v>485</v>
       </c>
       <c r="G14" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="H14">
         <v>2020</v>
@@ -7014,33 +7194,33 @@
         <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="M14" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13">
       <c r="A15" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" t="s">
+        <v>465</v>
+      </c>
+      <c r="C15" t="s">
+        <v>466</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>480</v>
+      </c>
+      <c r="E15" s="27" t="s">
         <v>487</v>
       </c>
-      <c r="B15" t="s">
-        <v>463</v>
-      </c>
-      <c r="C15" t="s">
-        <v>464</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>478</v>
-      </c>
-      <c r="E15" s="28" t="s">
+      <c r="F15" t="s">
         <v>488</v>
       </c>
-      <c r="F15" t="s">
-        <v>489</v>
-      </c>
       <c r="G15" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="H15">
         <v>2020</v>
@@ -7049,722 +7229,722 @@
         <v>1</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="16" t="s">
+        <v>489</v>
+      </c>
+      <c r="B16" t="s">
+        <v>465</v>
+      </c>
+      <c r="C16" t="s">
+        <v>466</v>
+      </c>
+      <c r="D16" s="27" t="s">
         <v>490</v>
       </c>
-      <c r="B16" t="s">
-        <v>463</v>
-      </c>
-      <c r="C16" t="s">
-        <v>464</v>
-      </c>
-      <c r="D16" s="28" t="s">
+      <c r="E16" s="27" t="s">
         <v>491</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>492</v>
       </c>
       <c r="I16" s="1">
         <v>1</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="16" t="s">
+        <v>492</v>
+      </c>
+      <c r="B17" t="s">
+        <v>465</v>
+      </c>
+      <c r="C17" t="s">
+        <v>466</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>490</v>
+      </c>
+      <c r="E17" s="27" t="s">
         <v>493</v>
-      </c>
-      <c r="B17" t="s">
-        <v>463</v>
-      </c>
-      <c r="C17" t="s">
-        <v>464</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>491</v>
-      </c>
-      <c r="E17" s="28" t="s">
-        <v>494</v>
       </c>
       <c r="I17" s="1">
         <v>1</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="B18" t="s">
+        <v>465</v>
+      </c>
+      <c r="C18" t="s">
+        <v>466</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>490</v>
+      </c>
+      <c r="E18" s="27" t="s">
         <v>495</v>
-      </c>
-      <c r="B18" t="s">
-        <v>463</v>
-      </c>
-      <c r="C18" t="s">
-        <v>464</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>491</v>
-      </c>
-      <c r="E18" s="28" t="s">
-        <v>496</v>
       </c>
       <c r="I18" s="1">
         <v>1</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="16" t="s">
+        <v>496</v>
+      </c>
+      <c r="B19" t="s">
+        <v>465</v>
+      </c>
+      <c r="C19" t="s">
+        <v>466</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>490</v>
+      </c>
+      <c r="E19" s="27" t="s">
         <v>497</v>
-      </c>
-      <c r="B19" t="s">
-        <v>463</v>
-      </c>
-      <c r="C19" t="s">
-        <v>464</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>491</v>
-      </c>
-      <c r="E19" s="28" t="s">
-        <v>498</v>
       </c>
       <c r="I19" s="1">
         <v>1</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="B20" t="s">
+        <v>465</v>
+      </c>
+      <c r="C20" t="s">
+        <v>466</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>490</v>
+      </c>
+      <c r="E20" s="27" t="s">
         <v>499</v>
-      </c>
-      <c r="B20" t="s">
-        <v>463</v>
-      </c>
-      <c r="C20" t="s">
-        <v>464</v>
-      </c>
-      <c r="D20" s="28" t="s">
-        <v>491</v>
-      </c>
-      <c r="E20" s="28" t="s">
-        <v>500</v>
       </c>
       <c r="I20" s="1">
         <v>1</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="16" t="s">
+        <v>500</v>
+      </c>
+      <c r="B21" t="s">
+        <v>465</v>
+      </c>
+      <c r="C21" t="s">
+        <v>466</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>490</v>
+      </c>
+      <c r="E21" s="27" t="s">
         <v>501</v>
-      </c>
-      <c r="B21" t="s">
-        <v>463</v>
-      </c>
-      <c r="C21" t="s">
-        <v>464</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>491</v>
-      </c>
-      <c r="E21" s="28" t="s">
-        <v>502</v>
       </c>
       <c r="I21" s="1">
         <v>1</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="16" t="s">
+        <v>502</v>
+      </c>
+      <c r="B22" t="s">
+        <v>465</v>
+      </c>
+      <c r="C22" t="s">
+        <v>466</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>490</v>
+      </c>
+      <c r="E22" s="27" t="s">
         <v>503</v>
-      </c>
-      <c r="B22" t="s">
-        <v>463</v>
-      </c>
-      <c r="C22" t="s">
-        <v>464</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>491</v>
-      </c>
-      <c r="E22" s="28" t="s">
-        <v>504</v>
       </c>
       <c r="I22" s="1">
         <v>1</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="M22" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="16" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A23" s="16" t="s">
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="16" t="s">
         <v>506</v>
       </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A24" s="16" t="s">
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="16" t="s">
         <v>507</v>
       </c>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A25" s="16" t="s">
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="16" t="s">
         <v>508</v>
       </c>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A26" s="16" t="s">
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="16" t="s">
         <v>509</v>
       </c>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A27" s="16" t="s">
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="16" t="s">
         <v>510</v>
       </c>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A28" s="16" t="s">
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="16" t="s">
         <v>511</v>
       </c>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A29" s="16" t="s">
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="16" t="s">
         <v>512</v>
       </c>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A30" s="16" t="s">
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="16" t="s">
         <v>513</v>
       </c>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A31" s="16" t="s">
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="16" t="s">
         <v>514</v>
       </c>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A32" s="16" t="s">
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="16" t="s">
         <v>515</v>
       </c>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="16" t="s">
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="16" t="s">
         <v>516</v>
       </c>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="16" t="s">
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="16" t="s">
         <v>517</v>
       </c>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="16" t="s">
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="16" t="s">
         <v>518</v>
       </c>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="16" t="s">
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="16" t="s">
         <v>519</v>
       </c>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="16" t="s">
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="16" t="s">
         <v>520</v>
       </c>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="16" t="s">
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="16" t="s">
         <v>521</v>
       </c>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="16" t="s">
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="16" t="s">
         <v>522</v>
       </c>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="16" t="s">
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="16" t="s">
         <v>523</v>
       </c>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="16" t="s">
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="16" t="s">
         <v>524</v>
       </c>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="16" t="s">
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="16" t="s">
         <v>525</v>
       </c>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="16" t="s">
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="16" t="s">
         <v>526</v>
       </c>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="16" t="s">
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="16" t="s">
         <v>527</v>
       </c>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="16" t="s">
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="16" t="s">
         <v>528</v>
       </c>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" s="16" t="s">
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="16" t="s">
         <v>529</v>
       </c>
-      <c r="D46" s="28"/>
-      <c r="E46" s="28"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="16" t="s">
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="16" t="s">
         <v>530</v>
       </c>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="16" t="s">
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="16" t="s">
         <v>531</v>
       </c>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" s="16" t="s">
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="16" t="s">
         <v>532</v>
       </c>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" s="16" t="s">
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="16" t="s">
         <v>533</v>
       </c>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" s="16" t="s">
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="16" t="s">
         <v>534</v>
       </c>
-      <c r="D51" s="28"/>
-      <c r="E51" s="28"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" s="16" t="s">
+      <c r="D52" s="27"/>
+      <c r="E52" s="27"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="16" t="s">
         <v>535</v>
       </c>
-      <c r="D52" s="28"/>
-      <c r="E52" s="28"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" s="16" t="s">
+      <c r="D53" s="27"/>
+      <c r="E53" s="27"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="16" t="s">
         <v>536</v>
       </c>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" s="16" t="s">
+      <c r="D54" s="27"/>
+      <c r="E54" s="27"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="16" t="s">
         <v>537</v>
       </c>
-      <c r="D54" s="28"/>
-      <c r="E54" s="28"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" s="16" t="s">
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="16" t="s">
         <v>538</v>
       </c>
-      <c r="D55" s="28"/>
-      <c r="E55" s="28"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56" s="16" t="s">
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="16" t="s">
         <v>539</v>
       </c>
-      <c r="D56" s="28"/>
-      <c r="E56" s="28"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" s="16" t="s">
+      <c r="D57" s="27"/>
+      <c r="E57" s="27"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="16" t="s">
         <v>540</v>
       </c>
-      <c r="D57" s="28"/>
-      <c r="E57" s="28"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A58" s="16" t="s">
+      <c r="D58" s="27"/>
+      <c r="E58" s="27"/>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="16" t="s">
         <v>541</v>
       </c>
-      <c r="D58" s="28"/>
-      <c r="E58" s="28"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59" s="16" t="s">
+      <c r="D59" s="27"/>
+      <c r="E59" s="27"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="16" t="s">
         <v>542</v>
       </c>
-      <c r="D59" s="28"/>
-      <c r="E59" s="28"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" s="16" t="s">
+      <c r="D60" s="27"/>
+      <c r="E60" s="27"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="16" t="s">
         <v>543</v>
       </c>
-      <c r="D60" s="28"/>
-      <c r="E60" s="28"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A61" s="16" t="s">
+      <c r="D61" s="27"/>
+      <c r="E61" s="27"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="16" t="s">
         <v>544</v>
       </c>
-      <c r="D61" s="28"/>
-      <c r="E61" s="28"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" s="16" t="s">
+      <c r="D62" s="27"/>
+      <c r="E62" s="27"/>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="16" t="s">
         <v>545</v>
       </c>
-      <c r="D62" s="28"/>
-      <c r="E62" s="28"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A63" s="16" t="s">
+      <c r="D63" s="27"/>
+      <c r="E63" s="27"/>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="16" t="s">
         <v>546</v>
       </c>
-      <c r="D63" s="28"/>
-      <c r="E63" s="28"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A64" s="16" t="s">
+      <c r="D64" s="27"/>
+      <c r="E64" s="27"/>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="16" t="s">
         <v>547</v>
       </c>
-      <c r="D64" s="28"/>
-      <c r="E64" s="28"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A65" s="16" t="s">
+      <c r="D65" s="27"/>
+      <c r="E65" s="27"/>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="16" t="s">
         <v>548</v>
       </c>
-      <c r="D65" s="28"/>
-      <c r="E65" s="28"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A66" s="16" t="s">
+      <c r="D66" s="27"/>
+      <c r="E66" s="27"/>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="16" t="s">
         <v>549</v>
       </c>
-      <c r="D66" s="28"/>
-      <c r="E66" s="28"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A67" s="16" t="s">
+      <c r="D67" s="27"/>
+      <c r="E67" s="27"/>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="16" t="s">
         <v>550</v>
       </c>
-      <c r="D67" s="28"/>
-      <c r="E67" s="28"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A68" s="16" t="s">
+      <c r="D68" s="27"/>
+      <c r="E68" s="27"/>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="16" t="s">
         <v>551</v>
       </c>
-      <c r="D68" s="28"/>
-      <c r="E68" s="28"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A69" s="16" t="s">
+      <c r="D69" s="27"/>
+      <c r="E69" s="27"/>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="16" t="s">
         <v>552</v>
       </c>
-      <c r="D69" s="28"/>
-      <c r="E69" s="28"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A70" s="16" t="s">
+      <c r="D70" s="27"/>
+      <c r="E70" s="27"/>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="16" t="s">
         <v>553</v>
       </c>
-      <c r="D70" s="28"/>
-      <c r="E70" s="28"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A71" s="16" t="s">
+      <c r="D71" s="27"/>
+      <c r="E71" s="27"/>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="16" t="s">
         <v>554</v>
       </c>
-      <c r="D71" s="28"/>
-      <c r="E71" s="28"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A72" s="16" t="s">
+      <c r="D72" s="27"/>
+      <c r="E72" s="27"/>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="16" t="s">
         <v>555</v>
       </c>
-      <c r="D72" s="28"/>
-      <c r="E72" s="28"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A73" s="16" t="s">
+      <c r="D73" s="27"/>
+      <c r="E73" s="27"/>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="16" t="s">
         <v>556</v>
       </c>
-      <c r="D73" s="28"/>
-      <c r="E73" s="28"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A74" s="16" t="s">
+      <c r="D74" s="27"/>
+      <c r="E74" s="27"/>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="16" t="s">
         <v>557</v>
       </c>
-      <c r="D74" s="28"/>
-      <c r="E74" s="28"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A75" s="16" t="s">
+      <c r="D75" s="27"/>
+      <c r="E75" s="27"/>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="16" t="s">
         <v>558</v>
       </c>
-      <c r="D75" s="28"/>
-      <c r="E75" s="28"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A76" s="16" t="s">
+      <c r="D76" s="27"/>
+      <c r="E76" s="27"/>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="16" t="s">
         <v>559</v>
       </c>
-      <c r="D76" s="28"/>
-      <c r="E76" s="28"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A77" s="16" t="s">
+      <c r="D77" s="27"/>
+      <c r="E77" s="27"/>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="16" t="s">
         <v>560</v>
       </c>
-      <c r="D77" s="28"/>
-      <c r="E77" s="28"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A78" s="16" t="s">
+      <c r="D78" s="27"/>
+      <c r="E78" s="27"/>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="16" t="s">
         <v>561</v>
       </c>
-      <c r="D78" s="28"/>
-      <c r="E78" s="28"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A79" s="16" t="s">
+      <c r="D79" s="27"/>
+      <c r="E79" s="27"/>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="16" t="s">
         <v>562</v>
       </c>
-      <c r="D79" s="28"/>
-      <c r="E79" s="28"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A80" s="16" t="s">
+      <c r="D80" s="27"/>
+      <c r="E80" s="27"/>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="16" t="s">
         <v>563</v>
       </c>
-      <c r="D80" s="28"/>
-      <c r="E80" s="28"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A81" s="16" t="s">
+      <c r="D81" s="27"/>
+      <c r="E81" s="27"/>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="16" t="s">
         <v>564</v>
       </c>
-      <c r="D81" s="28"/>
-      <c r="E81" s="28"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A82" s="16" t="s">
+      <c r="D82" s="27"/>
+      <c r="E82" s="27"/>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="16" t="s">
         <v>565</v>
       </c>
-      <c r="D82" s="28"/>
-      <c r="E82" s="28"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A83" s="16" t="s">
+      <c r="D83" s="27"/>
+      <c r="E83" s="27"/>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="16" t="s">
         <v>566</v>
       </c>
-      <c r="D83" s="28"/>
-      <c r="E83" s="28"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A84" s="16" t="s">
+      <c r="D84" s="27"/>
+      <c r="E84" s="27"/>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="16" t="s">
         <v>567</v>
       </c>
-      <c r="D84" s="28"/>
-      <c r="E84" s="28"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A85" s="16" t="s">
+      <c r="D85" s="27"/>
+      <c r="E85" s="27"/>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="16" t="s">
         <v>568</v>
       </c>
-      <c r="D85" s="28"/>
-      <c r="E85" s="28"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A86" s="16" t="s">
+      <c r="D86" s="27"/>
+      <c r="E86" s="27"/>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="16" t="s">
         <v>569</v>
       </c>
-      <c r="D86" s="28"/>
-      <c r="E86" s="28"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A87" s="16" t="s">
+      <c r="D87" s="27"/>
+      <c r="E87" s="27"/>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="16" t="s">
         <v>570</v>
       </c>
-      <c r="D87" s="28"/>
-      <c r="E87" s="28"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A88" s="16" t="s">
+      <c r="D88" s="27"/>
+      <c r="E88" s="27"/>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="16" t="s">
         <v>571</v>
       </c>
-      <c r="D88" s="28"/>
-      <c r="E88" s="28"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A89" s="16" t="s">
+      <c r="D89" s="27"/>
+      <c r="E89" s="27"/>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="16" t="s">
         <v>572</v>
       </c>
-      <c r="D89" s="28"/>
-      <c r="E89" s="28"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A90" s="16" t="s">
+      <c r="D90" s="27"/>
+      <c r="E90" s="27"/>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="16" t="s">
         <v>573</v>
       </c>
-      <c r="D90" s="28"/>
-      <c r="E90" s="28"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A91" s="16" t="s">
+      <c r="D91" s="27"/>
+      <c r="E91" s="27"/>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="16" t="s">
         <v>574</v>
       </c>
-      <c r="D91" s="28"/>
-      <c r="E91" s="28"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A92" s="16" t="s">
+      <c r="D92" s="27"/>
+      <c r="E92" s="27"/>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="16" t="s">
         <v>575</v>
       </c>
-      <c r="D92" s="28"/>
-      <c r="E92" s="28"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A93" s="16" t="s">
+      <c r="D93" s="27"/>
+      <c r="E93" s="27"/>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="D93" s="28"/>
-      <c r="E93" s="28"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A94" s="16" t="s">
+      <c r="D94" s="27"/>
+      <c r="E94" s="27"/>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="16" t="s">
         <v>577</v>
       </c>
-      <c r="D94" s="28"/>
-      <c r="E94" s="28"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A95" s="16" t="s">
+      <c r="D95" s="27"/>
+      <c r="E95" s="27"/>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="16" t="s">
         <v>578</v>
       </c>
-      <c r="D95" s="28"/>
-      <c r="E95" s="28"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A96" s="16" t="s">
+      <c r="D96" s="27"/>
+      <c r="E96" s="27"/>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="16" t="s">
         <v>579</v>
       </c>
-      <c r="D96" s="28"/>
-      <c r="E96" s="28"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A97" s="16" t="s">
+      <c r="D97" s="27"/>
+      <c r="E97" s="27"/>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="16" t="s">
         <v>580</v>
       </c>
-      <c r="D97" s="28"/>
-      <c r="E97" s="28"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A98" s="16" t="s">
+      <c r="D98" s="27"/>
+      <c r="E98" s="27"/>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="16" t="s">
         <v>581</v>
       </c>
-      <c r="D98" s="28"/>
-      <c r="E98" s="28"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A99" s="16" t="s">
+      <c r="D99" s="27"/>
+      <c r="E99" s="27"/>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="16" t="s">
         <v>582</v>
       </c>
-      <c r="D99" s="28"/>
-      <c r="E99" s="28"/>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A100" s="16" t="s">
-        <v>583</v>
-      </c>
-      <c r="D100" s="28"/>
-      <c r="E100" s="28"/>
+      <c r="D100" s="27"/>
+      <c r="E100" s="27"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L100">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L100" xr:uid="{C4061FB0-C4BA-4256-AD4B-E138DC65FD0F}">
       <formula1>$A$2:$A$100</formula1>
     </dataValidation>
   </dataValidations>
@@ -7773,73 +7953,73 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="12">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AF2A36FF-0234-4BD2-8C4F-B1D58268534A}">
           <x14:formula1>
             <xm:f>Input_Lists!$A$2:$A$5</xm:f>
           </x14:formula1>
           <xm:sqref>B2:B100</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F7904ABA-7FF6-4D66-A980-FA7A1E7F6553}">
           <x14:formula1>
             <xm:f>Input_Lists!$F$2:$F$50</xm:f>
           </x14:formula1>
           <xm:sqref>K2:K100 H2:H100</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E5308B3C-EE8C-4A16-A8C5-F70BCCD249AF}">
           <x14:formula1>
             <xm:f>Input_Lists!$B$2:$B$4</xm:f>
           </x14:formula1>
           <xm:sqref>C101:C1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2CAC201F-B339-49B1-AE3D-9983769E7D5D}">
           <x14:formula1>
             <xm:f>Input_Lists!$B$2:$B$30</xm:f>
           </x14:formula1>
           <xm:sqref>C2:C100</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F0E8745D-27C7-4E71-BC51-01EE6CE62B6B}">
           <x14:formula1>
             <xm:f>Input_Lists!$E$2:$E$4</xm:f>
           </x14:formula1>
           <xm:sqref>G101:G1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6FBF4FE7-C234-484A-BE82-1F7936EEFC07}">
           <x14:formula1>
             <xm:f>Input_Lists!$E$2:$E$5</xm:f>
           </x14:formula1>
           <xm:sqref>G2:G100</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6EBBCC73-4A98-4481-AD6A-5FF8FAA1B87C}">
           <x14:formula1>
             <xm:f>Input_Lists!$D$13:$D$15</xm:f>
           </x14:formula1>
           <xm:sqref>E101:E1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BF8A3A05-AABA-4183-BD06-CBE069D30D09}">
           <x14:formula1>
             <xm:f>Input_Lists!$C$2:$C$30</xm:f>
           </x14:formula1>
           <xm:sqref>D2:D100</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8A93F7D3-3C4A-4161-9E33-9D09FA5BFA5C}">
           <x14:formula1>
             <xm:f>Input_Lists!$C$2:$C$3</xm:f>
           </x14:formula1>
           <xm:sqref>D101:D1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E2CC718E-91DF-40DE-8E88-B848F4479F8C}">
           <x14:formula1>
             <xm:f>Input_Lists!$D$2:$D$1000</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E100</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1C4B2A8F-FB41-4C2B-93DE-89BB15D89593}">
           <x14:formula1>
             <xm:f>Input_Lists!$G$2:$G$4</xm:f>
           </x14:formula1>
           <xm:sqref>J101:J1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D07B565A-2423-4575-BE8B-980AE51BB9B2}">
           <x14:formula1>
             <xm:f>Input_Lists!$G$2:$G$10</xm:f>
           </x14:formula1>
@@ -7852,53 +8032,53 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CD3E7E-EC03-45D8-B861-A209A958E360}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
   <cols>
-    <col min="2" max="2" width="17.81640625" customWidth="1"/>
-    <col min="3" max="3" width="29.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="15" thickBot="1">
       <c r="A1" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>584</v>
+      </c>
+      <c r="C2" t="s">
         <v>585</v>
-      </c>
-      <c r="C2" t="s">
-        <v>586</v>
       </c>
     </row>
   </sheetData>
@@ -7907,391 +8087,391 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69141170-23C7-45DE-B71E-6E147A9D1710}">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G100"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7265625" customWidth="1"/>
-    <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.26953125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.1796875" style="28" customWidth="1"/>
-    <col min="11" max="11" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" style="27" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17">
       <c r="A1" s="24" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="D1" s="24" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F1" s="24" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="24" t="s">
+        <v>586</v>
+      </c>
+      <c r="H1" s="24" t="s">
         <v>587</v>
-      </c>
-      <c r="H1" s="24" t="s">
-        <v>588</v>
       </c>
       <c r="I1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="32" t="s">
-        <v>138</v>
+      <c r="J1" s="31" t="s">
+        <v>141</v>
       </c>
       <c r="K1" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>589</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>590</v>
       </c>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
+        <v>590</v>
+      </c>
+      <c r="B2" t="s">
         <v>591</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>592</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>593</v>
       </c>
-      <c r="D2" t="s">
-        <v>594</v>
-      </c>
       <c r="E2" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="F2" s="1">
         <v>2018</v>
       </c>
       <c r="G2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H2" t="s">
+        <v>594</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J2" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="K2" t="s">
+        <v>254</v>
+      </c>
+      <c r="L2" s="27" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" t="s">
+        <v>465</v>
+      </c>
+      <c r="B3" t="s">
         <v>595</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="K2" t="s">
-        <v>252</v>
-      </c>
-      <c r="L2" s="28" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>463</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>596</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>597</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>598</v>
-      </c>
-      <c r="E3" t="s">
-        <v>599</v>
       </c>
       <c r="F3" s="1">
         <v>2019</v>
       </c>
       <c r="G3" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="H3" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="28" t="s">
-        <v>144</v>
+        <v>149</v>
+      </c>
+      <c r="J3" s="27" t="s">
+        <v>147</v>
       </c>
       <c r="K3" t="s">
+        <v>599</v>
+      </c>
+      <c r="L3" s="27" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="B4" t="s">
         <v>600</v>
       </c>
-      <c r="L3" s="28" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>601</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>602</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>603</v>
-      </c>
-      <c r="E4" t="s">
-        <v>604</v>
       </c>
       <c r="F4" s="1">
         <v>2020</v>
       </c>
       <c r="G4" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>146</v>
+        <v>151</v>
+      </c>
+      <c r="J4" s="27" t="s">
+        <v>148</v>
       </c>
       <c r="K4" t="s">
+        <v>604</v>
+      </c>
+      <c r="L4" s="27" t="s">
         <v>605</v>
       </c>
-      <c r="L4" s="28" t="s">
+    </row>
+    <row r="5" spans="1:17">
+      <c r="B5" t="s">
+        <v>466</v>
+      </c>
+      <c r="C5" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
-        <v>464</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>607</v>
-      </c>
-      <c r="D5" t="s">
-        <v>608</v>
       </c>
       <c r="F5" s="1">
         <v>2021</v>
       </c>
       <c r="K5" t="s">
+        <v>608</v>
+      </c>
+      <c r="L5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="B6" t="s">
         <v>609</v>
       </c>
-      <c r="L5" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>610</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>611</v>
       </c>
-      <c r="D6" t="s">
+      <c r="K6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="B7" t="s">
         <v>612</v>
       </c>
-      <c r="K6" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>467</v>
+      </c>
+      <c r="D7" t="s">
         <v>613</v>
       </c>
-      <c r="C7" t="s">
-        <v>465</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="K7" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="B8" t="s">
         <v>614</v>
       </c>
-      <c r="K7" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>473</v>
+      </c>
+      <c r="D8" t="s">
         <v>615</v>
       </c>
-      <c r="C8" t="s">
-        <v>471</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="K8" t="s">
         <v>616</v>
       </c>
-      <c r="K8" t="s">
+    </row>
+    <row r="9" spans="1:17">
+      <c r="B9" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
+      <c r="C9" t="s">
+        <v>475</v>
+      </c>
+      <c r="D9" t="s">
         <v>618</v>
       </c>
-      <c r="C9" t="s">
-        <v>473</v>
-      </c>
-      <c r="D9" t="s">
+    </row>
+    <row r="10" spans="1:17">
+      <c r="B10" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B10" t="s">
+      <c r="C10" t="s">
+        <v>480</v>
+      </c>
+      <c r="D10" t="s">
         <v>620</v>
       </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="11" spans="1:17">
+      <c r="B11" t="s">
+        <v>621</v>
+      </c>
+      <c r="C11" t="s">
+        <v>490</v>
+      </c>
+      <c r="D11" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="B12" t="s">
+        <v>623</v>
+      </c>
+      <c r="D12" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="B13" t="s">
+        <v>625</v>
+      </c>
+      <c r="D13" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="B14" t="s">
+        <v>626</v>
+      </c>
+      <c r="D14" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="D15" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="D16" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="D17" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="D18" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4">
+      <c r="D19" t="s">
         <v>478</v>
       </c>
-      <c r="D10" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B11" t="s">
-        <v>622</v>
-      </c>
-      <c r="C11" t="s">
-        <v>491</v>
-      </c>
-      <c r="D11" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B12" t="s">
-        <v>624</v>
-      </c>
-      <c r="D12" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B13" t="s">
-        <v>626</v>
-      </c>
-      <c r="D13" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B14" t="s">
-        <v>627</v>
-      </c>
-      <c r="D14" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="D15" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="D16" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D17" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D18" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D19" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.35">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.35">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.35">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.35">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.35">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4">
       <c r="D25" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="4:4">
       <c r="D26" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.35">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="27" spans="4:4">
       <c r="D27" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.35">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="28" spans="4:4">
       <c r="D28" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.35">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="29" spans="4:4">
       <c r="D29" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.35">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="30" spans="4:4">
       <c r="D30" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.35">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="31" spans="4:4">
       <c r="D31" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.35">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="32" spans="4:4">
       <c r="D32" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.35">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4">
       <c r="D33" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
   </sheetData>
@@ -8300,33 +8480,33 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F2146B8-06B0-4B77-AEF1-291D8C107268}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
   <cols>
-    <col min="2" max="2" width="17.26953125" customWidth="1"/>
-    <col min="3" max="3" width="21.26953125" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" s="7" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="7" t="s">
         <v>629</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:3">
       <c r="B3">
         <v>1</v>
       </c>
@@ -8334,7 +8514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="B4">
         <v>1</v>
       </c>
@@ -8342,7 +8522,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="B5">
         <v>1</v>
       </c>
@@ -8350,7 +8530,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3">
       <c r="B6">
         <v>2</v>
       </c>
@@ -8358,7 +8538,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3">
       <c r="B7">
         <v>2</v>
       </c>
@@ -8366,7 +8546,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3">
       <c r="B8">
         <v>2</v>
       </c>
@@ -8374,7 +8554,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3">
       <c r="B9">
         <v>2</v>
       </c>
@@ -8382,7 +8562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3">
       <c r="B10">
         <v>2</v>
       </c>
@@ -8396,18 +8576,18 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{330CD7E0-2909-430A-A771-262C6560A59B}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
   <cols>
-    <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8415,6 +8595,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C6C00DC80E9FED4596C9F6D7CDDD6042" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="304b4b86b1adb04076f816908f5b0f7d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="48b2e3f7-b09f-47ae-8574-fd5d5ffa6be8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3a63a6dac07ae9f4dd91572cf05ae05d" ns2:_="">
     <xsd:import namespace="48b2e3f7-b09f-47ae-8574-fd5d5ffa6be8"/>
@@ -8560,52 +8749,20 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A1A7F49-642A-489E-B7FA-D3733416A7A1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="48b2e3f7-b09f-47ae-8574-fd5d5ffa6be8"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C727020-E847-4FBA-9836-8521D858741A}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BFBDC1E-FC23-4580-A942-B37D5BE17E7A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A1A7F49-642A-489E-B7FA-D3733416A7A1}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C727020-E847-4FBA-9836-8521D858741A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BFBDC1E-FC23-4580-A942-B37D5BE17E7A}"/>
 </file>